--- a/docs/01-basics/pie-chart-overview.xlsx
+++ b/docs/01-basics/pie-chart-overview.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/developer/github_isaqb/advanced-template/docs/01-basics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SebastianH.OOSEDE\Documents\iSAQB\curricula\web-ascii\advanced-template\docs\01-basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182FF1B4-E76D-1644-8110-6BB9862D395E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1657FA94-9E17-45F6-9632-4B548AAEF2FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="460" windowWidth="24560" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DE-Grafik" sheetId="3" r:id="rId1"/>
     <sheet name="EN-Graphic" sheetId="1" r:id="rId2"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Vortrag</t>
   </si>
@@ -45,24 +45,6 @@
   </si>
   <si>
     <t>Gesamt</t>
-  </si>
-  <si>
-    <t>Thema mit Einleitung</t>
-  </si>
-  <si>
-    <t>Thema über xz</t>
-  </si>
-  <si>
-    <t>Thema mit viel Theorie</t>
-  </si>
-  <si>
-    <t>Thema mit xy und Beispiel</t>
-  </si>
-  <si>
-    <t>Thema mit abc und d</t>
-  </si>
-  <si>
-    <t>Thema mit Abschlussbeispiel</t>
   </si>
   <si>
     <t>Introduction</t>
@@ -82,12 +64,33 @@
   <si>
     <t>final example</t>
   </si>
+  <si>
+    <t>Grundlagen</t>
+  </si>
+  <si>
+    <t>Architekturstile</t>
+  </si>
+  <si>
+    <t>Technologie und Infrastruktur</t>
+  </si>
+  <si>
+    <t>Entwurf von Web-Architekturen</t>
+  </si>
+  <si>
+    <t>Beispielarchitekturen</t>
+  </si>
+  <si>
+    <t>Qualität in Web-Architekturen</t>
+  </si>
+  <si>
+    <t>Protokolle &amp; Standards</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,7 +129,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -144,7 +147,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -268,8 +271,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.0409101070568101E-2"/>
-                  <c:y val="6.7844132435252794E-2"/>
+                  <c:x val="1.5011720502295564E-2"/>
+                  <c:y val="-1.1126104347892326E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -331,8 +334,55 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.0442785857776435E-2"/>
-                  <c:y val="-3.2186462384972997E-2"/>
+                  <c:x val="-4.3899897509469918E-2"/>
+                  <c:y val="7.9296805653656863E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr/>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.17484687730871926"/>
+                      <c:h val="0.12411519967969661"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A4C3-CF4A-A4D5-5E2A8878AA85}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.6242020708605016E-2"/>
+                  <c:y val="7.4953068755689346E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -345,13 +395,13 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.20891240362272728"/>
-                      <c:h val="0.19607003390775066"/>
+                      <c:w val="0.23399811674928242"/>
+                      <c:h val="0.10343523488285131"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-A4C3-CF4A-A4D5-5E2A8878AA85}"/>
+                  <c16:uniqueId val="{00000006-7F4F-4641-9508-5F3E0DE9D506}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -375,53 +425,59 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DE-Grafik'!$A$1:$A$6</c:f>
+              <c:f>'DE-Grafik'!$A$1:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Thema mit Einleitung</c:v>
+                  <c:v>Grundlagen</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Thema über xz</c:v>
+                  <c:v>Protokolle &amp; Standards</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Thema mit viel Theorie</c:v>
+                  <c:v>Qualität in Web-Architekturen</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Thema mit xy und Beispiel</c:v>
+                  <c:v>Technologie und Infrastruktur</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Thema mit abc und d</c:v>
+                  <c:v>Entwurf von Web-Architekturen</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Thema mit Abschlussbeispiel</c:v>
+                  <c:v>Architekturstile</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Beispielarchitekturen</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DE-Grafik'!$B$1:$B$6</c:f>
+              <c:f>'DE-Grafik'!$B$1:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -477,7 +533,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -806,13 +862,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1206,78 +1262,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="26.5625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8125" style="1"/>
     <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="16384" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
+        <v>240</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B7" s="1">
-        <f>SUM(B1:B6)</f>
-        <v>960</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="1">
+        <f>SUM(B1:B7)</f>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1289,63 +1356,63 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="34.1875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8125" style="1"/>
     <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="16384" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="B7" s="1">
         <f>SUM(B1:B6)</f>
         <v>960</v>
@@ -1361,16 +1428,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="249" zoomScaleNormal="249" zoomScalePageLayoutView="249" workbookViewId="0">
+    <sheetView zoomScale="249" zoomScaleNormal="249" zoomScalePageLayoutView="249" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1393,7 +1460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1408,7 +1475,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1423,7 +1490,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1438,7 +1505,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1453,7 +1520,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1468,7 +1535,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1483,7 +1550,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="D10" s="1">
         <f>SUM(D2:D8)</f>
         <v>960</v>

--- a/docs/01-basics/pie-chart-overview.xlsx
+++ b/docs/01-basics/pie-chart-overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SebastianH.OOSEDE\Documents\iSAQB\curricula\web-ascii\advanced-template\docs\01-basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1657FA94-9E17-45F6-9632-4B548AAEF2FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55877A3-17EB-4049-BF69-40D21C368F05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DE-Grafik" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Vortrag</t>
   </si>
@@ -47,24 +47,6 @@
     <t>Gesamt</t>
   </si>
   <si>
-    <t>Introduction</t>
-  </si>
-  <si>
-    <t>xz</t>
-  </si>
-  <si>
-    <t>Lots of theory</t>
-  </si>
-  <si>
-    <t>xy and example</t>
-  </si>
-  <si>
-    <t>abc and d</t>
-  </si>
-  <si>
-    <t>final example</t>
-  </si>
-  <si>
     <t>Grundlagen</t>
   </si>
   <si>
@@ -84,6 +66,27 @@
   </si>
   <si>
     <t>Protokolle &amp; Standards</t>
+  </si>
+  <si>
+    <t>Principles</t>
+  </si>
+  <si>
+    <t>Protocols and standards</t>
+  </si>
+  <si>
+    <t>Architecture styles</t>
+  </si>
+  <si>
+    <t>Technology and infrastructure</t>
+  </si>
+  <si>
+    <t>Design of web architectures</t>
+  </si>
+  <si>
+    <t>Quality of web architectures</t>
+  </si>
+  <si>
+    <t>Exemplary architectures</t>
   </si>
 </sst>
 </file>
@@ -657,8 +660,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.0409101070568101E-2"/>
-                  <c:y val="6.7844132435252794E-2"/>
+                  <c:x val="7.3541463131499086E-3"/>
+                  <c:y val="7.8817559552264698E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -720,8 +723,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.6632802603144602E-3"/>
-                  <c:y val="-3.2186462384972997E-2"/>
+                  <c:x val="6.4227313307254274E-4"/>
+                  <c:y val="3.0774188293867868E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -757,53 +760,59 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'EN-Graphic'!$A$1:$A$6</c:f>
+              <c:f>'EN-Graphic'!$A$1:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Introduction</c:v>
+                  <c:v>Principles</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>xz</c:v>
+                  <c:v>Protocols and standards</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Lots of theory</c:v>
+                  <c:v>Architecture styles</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>xy and example</c:v>
+                  <c:v>Technology and infrastructure</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>abc and d</c:v>
+                  <c:v>Design of web architectures</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>final example</c:v>
+                  <c:v>Quality of web architectures</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Exemplary architectures</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EN-Graphic'!$B$1:$B$6</c:f>
+              <c:f>'EN-Graphic'!$B$1:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15"/>
@@ -1278,7 +1287,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1">
         <v>90</v>
@@ -1286,7 +1295,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>90</v>
@@ -1294,7 +1303,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>180</v>
@@ -1302,18 +1311,18 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>240</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>300</v>
@@ -1321,7 +1330,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>180</v>
@@ -1329,7 +1338,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>60</v>
@@ -1350,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15"/>
@@ -1366,56 +1375,64 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>180</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
-        <v>210</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B7" s="1">
-        <f>SUM(B1:B6)</f>
-        <v>960</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="1">
+        <f>SUM(B1:B7)</f>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>

--- a/docs/01-basics/pie-chart-overview.xlsx
+++ b/docs/01-basics/pie-chart-overview.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SebastianH.OOSEDE\Documents\iSAQB\curricula\web-ascii\advanced-template\docs\01-basics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/developer/github_isaqb/curriculum-web/docs/01-basics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55877A3-17EB-4049-BF69-40D21C368F05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16BA2CD-6DA8-8E4A-88FB-83698633B9CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="17840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DE-Grafik" sheetId="3" r:id="rId1"/>
     <sheet name="EN-Graphic" sheetId="1" r:id="rId2"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -71,29 +73,29 @@
     <t>Principles</t>
   </si>
   <si>
-    <t>Protocols and standards</t>
-  </si>
-  <si>
-    <t>Architecture styles</t>
-  </si>
-  <si>
-    <t>Technology and infrastructure</t>
-  </si>
-  <si>
-    <t>Design of web architectures</t>
-  </si>
-  <si>
-    <t>Quality of web architectures</t>
-  </si>
-  <si>
-    <t>Exemplary architectures</t>
+    <t>Protocols and Standards</t>
+  </si>
+  <si>
+    <t>Architecture Styles</t>
+  </si>
+  <si>
+    <t>Technology and Infrastructure</t>
+  </si>
+  <si>
+    <t>Design of Web Architectures</t>
+  </si>
+  <si>
+    <t>Quality of Web Architectures</t>
+  </si>
+  <si>
+    <t>Example Architectures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,7 +134,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -150,7 +152,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -357,7 +359,7 @@
                   <a:pPr>
                     <a:defRPr/>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-DE"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -522,7 +524,7 @@
           <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -536,7 +538,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -767,22 +769,22 @@
                   <c:v>Principles</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Protocols and standards</c:v>
+                  <c:v>Protocols and Standards</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Architecture styles</c:v>
+                  <c:v>Architecture Styles</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Technology and infrastructure</c:v>
+                  <c:v>Technology and Infrastructure</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Design of web architectures</c:v>
+                  <c:v>Design of Web Architectures</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Quality of web architectures</c:v>
+                  <c:v>Quality of Web Architectures</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Exemplary architectures</c:v>
+                  <c:v>Example Architectures</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -854,7 +856,7 @@
           <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1277,15 +1279,15 @@
       <selection activeCell="B1" sqref="B1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8125" style="1"/>
+    <col min="1" max="1" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.8125" style="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1293,7 +1295,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1301,7 +1303,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1309,7 +1311,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1320,7 +1322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1328,7 +1330,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1336,7 +1338,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1344,7 +1346,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <f>SUM(B1:B7)</f>
         <v>1140</v>
@@ -1361,19 +1363,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.1875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8125" style="1"/>
+    <col min="1" max="1" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.8125" style="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1389,7 +1391,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1397,7 +1399,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1405,7 +1407,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,7 +1415,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1421,7 +1423,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1429,7 +1431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <f>SUM(B1:B7)</f>
         <v>1140</v>
@@ -1449,12 +1451,12 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.8125" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1477,7 +1479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1492,7 +1494,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1507,7 +1509,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1522,7 +1524,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1537,7 +1539,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1552,7 +1554,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1567,7 +1569,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" s="1">
         <f>SUM(D2:D8)</f>
         <v>960</v>
